--- a/Assets/GameMain/DataTables/Data/ResourcesConfigTables.xlsx
+++ b/Assets/GameMain/DataTables/Data/ResourcesConfigTables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92871310-DD6C-4341-838F-2DBBC48E413A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51CE611-CB59-405E-892B-7347F3C32B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,8 +243,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,7 +534,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
